--- a/turnos.xlsx
+++ b/turnos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruipe\Desktop\jeec\schedule_otimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA655A70-766B-43D1-A6D2-2B4F1931A714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5BD0B0-4D69-403E-8ADC-D03C4F9050AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12216" xr2:uid="{0784EA88-8875-478A-91C5-C3F582E7D373}"/>
+    <workbookView xWindow="24" yWindow="744" windowWidth="23016" windowHeight="12216" xr2:uid="{0784EA88-8875-478A-91C5-C3F582E7D373}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -36,55 +36,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>turnos</t>
   </si>
   <si>
-    <t>auditorio</t>
-  </si>
-  <si>
-    <t>divulgacao</t>
-  </si>
-  <si>
     <t>decorre</t>
   </si>
   <si>
-    <t>logistica</t>
-  </si>
-  <si>
     <t>preferencia</t>
   </si>
   <si>
     <t>Webdev</t>
   </si>
   <si>
-    <t>Buss</t>
-  </si>
-  <si>
-    <t>Speakers</t>
-  </si>
-  <si>
-    <t>[1,1,0,1,0,1,1,0,1,1]</t>
-  </si>
-  <si>
-    <t>[1,1,0,1,0,1,0,1,1,1]</t>
-  </si>
-  <si>
-    <t>[1,1,1,1,1,1,0,1,0,1]</t>
-  </si>
-  <si>
     <t>Num Pessoas</t>
+  </si>
+  <si>
+    <t>Turno1</t>
+  </si>
+  <si>
+    <t>Turno2</t>
+  </si>
+  <si>
+    <t>Turno3</t>
+  </si>
+  <si>
+    <t>Turno4</t>
+  </si>
+  <si>
+    <t>Turno5</t>
+  </si>
+  <si>
+    <t>[1,1,1,1,1,1,1,1,1,1]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -426,15 +426,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A695A15F-BAE7-4DD9-B461-9052F13FDB4C}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
@@ -444,58 +445,87 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/turnos.xlsx
+++ b/turnos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruipe\Desktop\jeec\schedule_otimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5BD0B0-4D69-403E-8ADC-D03C4F9050AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5D1EB5-2E68-424E-8451-EF20EF937FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="744" windowWidth="23016" windowHeight="12216" xr2:uid="{0784EA88-8875-478A-91C5-C3F582E7D373}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>turnos</t>
   </si>
@@ -56,19 +56,7 @@
     <t>Turno1</t>
   </si>
   <si>
-    <t>Turno2</t>
-  </si>
-  <si>
-    <t>Turno3</t>
-  </si>
-  <si>
-    <t>Turno4</t>
-  </si>
-  <si>
-    <t>Turno5</t>
-  </si>
-  <si>
-    <t>[1,1,1,1,1,1,1,1,1,1]</t>
+    <t>[1,0,0,0,0,0,0,0,0,0]</t>
   </si>
 </sst>
 </file>
@@ -426,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A695A15F-BAE7-4DD9-B461-9052F13FDB4C}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -459,68 +447,12 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
         <v>3</v>
       </c>
     </row>

--- a/turnos.xlsx
+++ b/turnos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruipe\Desktop\jeec\schedule_otimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5D1EB5-2E68-424E-8451-EF20EF937FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7112EF18-5732-4056-847B-F12D5758E831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="744" windowWidth="23016" windowHeight="12216" xr2:uid="{0784EA88-8875-478A-91C5-C3F582E7D373}"/>
+    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12216" xr2:uid="{0784EA88-8875-478A-91C5-C3F582E7D373}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>turnos</t>
   </si>
@@ -47,16 +47,22 @@
     <t>preferencia</t>
   </si>
   <si>
-    <t>Webdev</t>
-  </si>
-  <si>
     <t>Num Pessoas</t>
   </si>
   <si>
-    <t>Turno1</t>
-  </si>
-  <si>
-    <t>[1,0,0,0,0,0,0,0,0,0]</t>
+    <t>[1,1,1,1,0,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t>TurnoWeb</t>
+  </si>
+  <si>
+    <t>TurnoMK</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>WebDev</t>
   </si>
 </sst>
 </file>
@@ -414,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A695A15F-BAE7-4DD9-B461-9052F13FDB4C}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -436,7 +442,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -447,13 +453,27 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/turnos.xlsx
+++ b/turnos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruipe\Desktop\jeec\schedule_otimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7112EF18-5732-4056-847B-F12D5758E831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC369CA8-9E27-4031-AB08-A41518C93325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12216" xr2:uid="{0784EA88-8875-478A-91C5-C3F582E7D373}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>turnos</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Num Pessoas</t>
   </si>
   <si>
-    <t>[1,1,1,1,0,0,0,0,0,0]</t>
-  </si>
-  <si>
     <t>TurnoWeb</t>
   </si>
   <si>
@@ -63,6 +60,21 @@
   </si>
   <si>
     <t>WebDev</t>
+  </si>
+  <si>
+    <t>[1,1,1,1,1,1,1,1,1,1]</t>
+  </si>
+  <si>
+    <t>TurnoCoo</t>
+  </si>
+  <si>
+    <t>Coordinator</t>
+  </si>
+  <si>
+    <t>TurnoSpe</t>
+  </si>
+  <si>
+    <t>Speakers</t>
   </si>
 </sst>
 </file>
@@ -420,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A695A15F-BAE7-4DD9-B461-9052F13FDB4C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -450,30 +462,58 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
+      <c r="D5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/turnos.xlsx
+++ b/turnos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruipe\Desktop\jeec\schedule_otimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC369CA8-9E27-4031-AB08-A41518C93325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3B2711-7DA7-4732-8AD1-450DEB4CD1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12216" xr2:uid="{0784EA88-8875-478A-91C5-C3F582E7D373}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0784EA88-8875-478A-91C5-C3F582E7D373}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>turnos</t>
   </si>
@@ -62,19 +62,25 @@
     <t>WebDev</t>
   </si>
   <si>
-    <t>[1,1,1,1,1,1,1,1,1,1]</t>
-  </si>
-  <si>
-    <t>TurnoCoo</t>
-  </si>
-  <si>
-    <t>Coordinator</t>
-  </si>
-  <si>
     <t>TurnoSpe</t>
   </si>
   <si>
     <t>Speakers</t>
+  </si>
+  <si>
+    <t>Logistics</t>
+  </si>
+  <si>
+    <t>TurnoLog</t>
+  </si>
+  <si>
+    <t>TurnoBus</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>[1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1]</t>
   </si>
 </sst>
 </file>
@@ -432,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A695A15F-BAE7-4DD9-B461-9052F13FDB4C}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -465,7 +471,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -479,7 +485,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -490,30 +496,44 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/turnos.xlsx
+++ b/turnos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruipe\Desktop\jeec\schedule_otimization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b68001cfe7d3a722/Ambiente de Trabalho/jeec/schedule_otimization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3B2711-7DA7-4732-8AD1-450DEB4CD1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{3A3B2711-7DA7-4732-8AD1-450DEB4CD1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D1181D5-EAF6-44D3-A949-FC795E389E44}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0784EA88-8875-478A-91C5-C3F582E7D373}"/>
   </bookViews>
@@ -50,34 +50,34 @@
     <t>Num Pessoas</t>
   </si>
   <si>
-    <t>TurnoWeb</t>
-  </si>
-  <si>
-    <t>TurnoMK</t>
-  </si>
-  <si>
-    <t>Marketing</t>
-  </si>
-  <si>
-    <t>WebDev</t>
-  </si>
-  <si>
-    <t>TurnoSpe</t>
-  </si>
-  <si>
-    <t>Speakers</t>
-  </si>
-  <si>
-    <t>Logistics</t>
-  </si>
-  <si>
-    <t>TurnoLog</t>
-  </si>
-  <si>
-    <t>TurnoBus</t>
-  </si>
-  <si>
-    <t>Business</t>
+    <t>CheckIn</t>
+  </si>
+  <si>
+    <t>Auditorio</t>
+  </si>
+  <si>
+    <t>Almocos</t>
+  </si>
+  <si>
+    <t>Divulgacao</t>
+  </si>
+  <si>
+    <t>Workshops</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>["Business", "Speakers", "Logistics"]</t>
+  </si>
+  <si>
+    <t>["Logistics"]</t>
+  </si>
+  <si>
+    <t>["Business", "Logistics"]</t>
+  </si>
+  <si>
+    <t>["Marketing", "Volunteer"]</t>
   </si>
   <si>
     <t>[1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1]</t>
@@ -447,7 +447,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.77734375" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
@@ -474,10 +474,10 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -488,43 +488,43 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -533,7 +533,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/turnos.xlsx
+++ b/turnos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b68001cfe7d3a722/Ambiente de Trabalho/jeec/schedule_otimization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{3A3B2711-7DA7-4732-8AD1-450DEB4CD1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D1181D5-EAF6-44D3-A949-FC795E389E44}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{3A3B2711-7DA7-4732-8AD1-450DEB4CD1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0103D1F0-8081-417B-A7B8-C286EA924006}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0784EA88-8875-478A-91C5-C3F582E7D373}"/>
   </bookViews>
@@ -80,7 +80,7 @@
     <t>["Marketing", "Volunteer"]</t>
   </si>
   <si>
-    <t>[1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1]</t>
+    <t>[1,1,1,1,1,1]</t>
   </si>
 </sst>
 </file>
@@ -139,6 +139,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/turnos.xlsx
+++ b/turnos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b68001cfe7d3a722/Ambiente de Trabalho/jeec/schedule_otimization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{3A3B2711-7DA7-4732-8AD1-450DEB4CD1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0103D1F0-8081-417B-A7B8-C286EA924006}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{3A3B2711-7DA7-4732-8AD1-450DEB4CD1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF4F4C92-A35F-4EC4-9516-7E28A127DA41}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0784EA88-8875-478A-91C5-C3F582E7D373}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>turnos</t>
   </si>
@@ -56,28 +56,10 @@
     <t>Auditorio</t>
   </si>
   <si>
-    <t>Almocos</t>
-  </si>
-  <si>
-    <t>Divulgacao</t>
-  </si>
-  <si>
-    <t>Workshops</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
     <t>["Business", "Speakers", "Logistics"]</t>
   </si>
   <si>
     <t>["Logistics"]</t>
-  </si>
-  <si>
-    <t>["Business", "Logistics"]</t>
-  </si>
-  <si>
-    <t>["Marketing", "Volunteer"]</t>
   </si>
   <si>
     <t>[1,1,1,1,1,1]</t>
@@ -442,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A695A15F-BAE7-4DD9-B461-9052F13FDB4C}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A4" sqref="A4:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -475,13 +457,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -489,55 +471,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/turnos.xlsx
+++ b/turnos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b68001cfe7d3a722/Ambiente de Trabalho/jeec/schedule_otimization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{3A3B2711-7DA7-4732-8AD1-450DEB4CD1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF4F4C92-A35F-4EC4-9516-7E28A127DA41}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{51869039-E702-4671-BD02-74778DF24566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D87ED42D-5C39-4BD0-9412-0A82205798FE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0784EA88-8875-478A-91C5-C3F582E7D373}"/>
+    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12216" xr2:uid="{0784EA88-8875-478A-91C5-C3F582E7D373}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>turnos</t>
   </si>
@@ -56,13 +56,49 @@
     <t>Auditorio</t>
   </si>
   <si>
+    <t>Divulgacao</t>
+  </si>
+  <si>
+    <t>Workshops</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>["Business", "Speakers", "Logistics"]</t>
   </si>
   <si>
     <t>["Logistics"]</t>
   </si>
   <si>
-    <t>[1,1,1,1,1,1]</t>
+    <t>["Business", "Logistics"]</t>
+  </si>
+  <si>
+    <t>["Marketing", "Volunteer"]</t>
+  </si>
+  <si>
+    <t>MontagemDesmontagem</t>
+  </si>
+  <si>
+    <t>CoffeeBreak</t>
+  </si>
+  <si>
+    <t>Refeicoes</t>
+  </si>
+  <si>
+    <t>[1,1,1,1,1,1,1,1,1,1,1,1,1,1,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,1,1,1,1,1,1,1,1,1,1,1,1,1,1]</t>
+  </si>
+  <si>
+    <t>[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,1,1,0,0,0,0,0,1,1,0,0,0,0,0,1,1,0,0,0,0,0,1,1,0,0,0,0,0,1,1,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t>[0,0,0,0,0,0,0,0,0,0,0,0,0,0,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t>MarketingTurno</t>
+  </si>
+  <si>
+    <t>["Marketing"]</t>
   </si>
 </sst>
 </file>
@@ -121,10 +157,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -424,15 +456,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A695A15F-BAE7-4DD9-B461-9052F13FDB4C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.77734375" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
@@ -457,13 +489,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -471,13 +503,97 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/turnos.xlsx
+++ b/turnos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b68001cfe7d3a722/Ambiente de Trabalho/jeec/schedule_otimization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{51869039-E702-4671-BD02-74778DF24566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D87ED42D-5C39-4BD0-9412-0A82205798FE}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{51869039-E702-4671-BD02-74778DF24566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFEA1A22-5D3D-4181-B504-43AE04512CAC}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12216" xr2:uid="{0784EA88-8875-478A-91C5-C3F582E7D373}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0784EA88-8875-478A-91C5-C3F582E7D373}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -157,6 +157,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -459,7 +463,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A5" sqref="A5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -486,69 +490,69 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -556,13 +560,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -570,30 +574,30 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
